--- a/data/shared/aux_calc.xlsx
+++ b/data/shared/aux_calc.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF05C4-904A-DD45-865D-3F7B3559575B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="24500" windowHeight="17500" xr2:uid="{043DC9CB-24FF-C946-8102-61F2846AA687}"/>
+    <workbookView xWindow="3615" yWindow="495" windowWidth="24495" windowHeight="17505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air Separation" sheetId="3" r:id="rId1"/>
     <sheet name="Lime Kiln" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -203,7 +202,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3E7D809F-793F-A148-A72C-4C5CC6CCD024}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,26 +513,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B260D0A-98ED-8740-B378-C3B36E61F32C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -565,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -588,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -611,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -634,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -657,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -680,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -703,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -735,26 +734,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A804B3-D43D-3D47-8E31-0B4D0BB26431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -786,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -809,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -832,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -855,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -878,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>

--- a/data/shared/aux_calc.xlsx
+++ b/data/shared/aux_calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D60D5-59FC-8C41-8CDC-9A8E2863CB3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="495" windowWidth="24495" windowHeight="17505" activeTab="1"/>
+    <workbookView xWindow="3620" yWindow="500" windowWidth="24500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Air Separation" sheetId="3" r:id="rId1"/>
@@ -129,9 +130,6 @@
     <t>energy</t>
   </si>
   <si>
-    <t>O2__in-air</t>
-  </si>
-  <si>
     <t>O2__lost</t>
   </si>
   <si>
@@ -142,12 +140,15 @@
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>O2__in air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -202,7 +203,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,26 +514,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -564,18 +565,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -587,12 +588,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -610,12 +611,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -633,18 +634,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -656,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -679,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -702,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -734,26 +735,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -785,9 +786,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -808,9 +809,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -831,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -854,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -877,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>

--- a/data/shared/aux_calc.xlsx
+++ b/data/shared/aux_calc.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D60D5-59FC-8C41-8CDC-9A8E2863CB3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D32EED-CEB1-4C4A-83DE-4D90BF0AAEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="500" windowWidth="24500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="26720" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Air Separation" sheetId="3" r:id="rId1"/>
     <sheet name="Lime Kiln" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>Heat Demand</t>
   </si>
@@ -52,9 +52,6 @@
     <t>MolMassRatio</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>CaCO3</t>
   </si>
   <si>
@@ -143,6 +140,24 @@
   </si>
   <si>
     <t>O2__in air</t>
+  </si>
+  <si>
+    <t>slag</t>
+  </si>
+  <si>
+    <t>CO2__temp</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>CO2__embodied in lime/slag</t>
+  </si>
+  <si>
+    <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>CO2 not calcinated</t>
   </si>
 </sst>
 </file>
@@ -517,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,140 +550,140 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>2</v>
@@ -677,21 +692,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
@@ -705,25 +720,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>2</v>
@@ -736,10 +751,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,42 +771,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -811,19 +826,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -832,75 +847,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data/shared/aux_calc.xlsx
+++ b/data/shared/aux_calc.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D32EED-CEB1-4C4A-83DE-4D90BF0AAEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="26720" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="26715" windowHeight="17505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air Separation" sheetId="3" r:id="rId1"/>
     <sheet name="Lime Kiln" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,19 +153,26 @@
     <t>CO2__embodied in lime/slag</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>CO2 not calcinated</t>
+  </si>
+  <si>
+    <t>CO2__from lime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,18 +213,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,26 +536,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -580,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -603,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -626,7 +633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -649,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -672,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -695,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -718,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -750,26 +757,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -801,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -824,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -847,7 +854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -867,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -880,8 +887,8 @@
       <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -890,10 +897,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -916,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -939,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
